--- a/presenca.xlsx
+++ b/presenca.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/561e3191c080ffc5/Documentos/dev/coletivoAprendiz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\JOBS\Cieds\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{AA36A75E-37E9-4BC5-86CB-EEB90BCB1630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B64A1922-6885-4202-8248-BF1F7EC40F35}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D31EA6F6-189F-4929-83D0-E7ED03D4D7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AADD3DBC-10A2-4E1E-B84E-2ACBCC221757}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AADD3DBC-10A2-4E1E-B84E-2ACBCC221757}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="36">
   <si>
     <t>Página 1</t>
   </si>
@@ -184,6 +184,42 @@
   <si>
     <t>COMPANHIA DOCAS DO RIO DE JANEIRO</t>
   </si>
+  <si>
+    <t>Joao Marcos</t>
+  </si>
+  <si>
+    <t>Priscila Monteiro</t>
+  </si>
+  <si>
+    <t>Otavio Henrique</t>
+  </si>
+  <si>
+    <t>Gabriel Fernando</t>
+  </si>
+  <si>
+    <t>Andre Muller</t>
+  </si>
+  <si>
+    <t>Antonio conselheiro</t>
+  </si>
+  <si>
+    <t>Pantera negra</t>
+  </si>
+  <si>
+    <t>Chico Science</t>
+  </si>
+  <si>
+    <t>Tomé de Souza</t>
+  </si>
+  <si>
+    <t>Padre anchieta</t>
+  </si>
+  <si>
+    <t>Antonio Bandeirante</t>
+  </si>
+  <si>
+    <t>José Prudente de Morais</t>
+  </si>
 </sst>
 </file>
 
@@ -192,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10409]dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -237,20 +273,6 @@
       <color rgb="FF4D4D4D"/>
       <name val="Tahoma"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="7.5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -330,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -339,30 +361,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -379,6 +377,36 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -388,20 +416,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,9 +829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C4A81B-6DDE-4A06-A129-9EA8C6FFFC9B}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15:C15"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -845,137 +861,137 @@
   <sheetData>
     <row r="1" spans="1:20" ht="3.4" customHeight="1"/>
     <row r="2" spans="1:20">
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="13"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:20" ht="16.350000000000001" customHeight="1">
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:20" ht="41.45" customHeight="1">
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:20" ht="5.0999999999999996" customHeight="1"/>
     <row r="7" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:20" ht="2.1" customHeight="1"/>
     <row r="9" spans="1:20">
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="J10" s="17">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="J10" s="9">
         <v>45154</v>
       </c>
-      <c r="K10" s="13"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="9.9499999999999993" customHeight="1"/>
     <row r="13" spans="1:20" ht="3.95" customHeight="1"/>
     <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="6"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="12"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="10" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="11" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="11" t="s">
+      <c r="L15" s="12"/>
+      <c r="M15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="11" t="s">
+      <c r="N15" s="11"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="6"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="2" t="s">
         <v>11</v>
       </c>
@@ -984,33 +1000,35 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="B16" s="4">
+      <c r="B16" s="19">
         <v>52967</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="7" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="6"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1019,33 +1037,35 @@
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="4">
+      <c r="B17" s="19">
         <v>51762</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="7" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="6"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1054,33 +1074,35 @@
       </c>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="4">
+      <c r="B18" s="19">
         <v>59259</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="7" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="6"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1089,33 +1111,35 @@
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="4">
+      <c r="B19" s="19">
         <v>38819</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="7" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="6"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="12"/>
       <c r="S19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1124,33 +1148,35 @@
       </c>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="4">
+      <c r="B20" s="19">
         <v>59690</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="7" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="6"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="12"/>
       <c r="S20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1159,43 +1185,49 @@
       </c>
     </row>
     <row r="21" spans="2:20" ht="17.100000000000001" customHeight="1">
-      <c r="B21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="6"/>
+      <c r="B21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="F9:H11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B14:T14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="B21:T21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:O19"/>
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:G16"/>
@@ -1208,25 +1240,19 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="B21:T21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="B14:T14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="F9:H11"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.59055118110236204" bottom="1.30782283464567" header="0.59055118110236204" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1241,9 +1267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3637E5C4-A4FF-4100-926D-0B70C0524C25}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21:J21"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1273,136 +1299,136 @@
   <sheetData>
     <row r="1" spans="1:20" ht="3.4" customHeight="1"/>
     <row r="2" spans="1:20">
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="13"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:20" ht="16.350000000000001" customHeight="1">
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:20" ht="41.45" customHeight="1">
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:20" ht="5.0999999999999996" customHeight="1"/>
     <row r="7" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:20" ht="2.1" customHeight="1"/>
     <row r="9" spans="1:20">
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="J10" s="17">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="J10" s="9">
         <v>45154</v>
       </c>
-      <c r="K10" s="13"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="9.9499999999999993" customHeight="1"/>
     <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="6"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="12"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="10" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="11" t="s">
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="11" t="s">
+      <c r="L14" s="12"/>
+      <c r="M14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="11" t="s">
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="6"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1411,33 +1437,35 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="B15" s="4">
+      <c r="B15" s="19">
         <v>43865</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="6"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1446,33 +1474,35 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="B16" s="4">
+      <c r="B16" s="19">
         <v>47933</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="6"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1481,33 +1511,35 @@
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="4">
+      <c r="B17" s="19">
         <v>45521</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="6"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1516,33 +1548,35 @@
       </c>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="4">
+      <c r="B18" s="19">
         <v>47919</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="6"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1551,33 +1585,35 @@
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="4">
+      <c r="B19" s="19">
         <v>47767</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="6"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="12"/>
       <c r="S19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1586,33 +1622,35 @@
       </c>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="4">
+      <c r="B20" s="19">
         <v>48010</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="6"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="12"/>
       <c r="S20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1621,33 +1659,35 @@
       </c>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="4">
+      <c r="B21" s="19">
         <v>39103</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="6"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="12"/>
       <c r="S21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1656,43 +1696,61 @@
       </c>
     </row>
     <row r="22" spans="2:20" ht="17.100000000000001" customHeight="1">
-      <c r="B22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="6"/>
+      <c r="B22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="F9:H11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="B22:T22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:O18"/>
     <mergeCell ref="P16:R16"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:G15"/>
@@ -1705,37 +1763,19 @@
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="B22:T22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="F9:H11"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.59055118110236204" bottom="1.30782283464567" header="0.59055118110236204" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/presenca.xlsx
+++ b/presenca.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\JOBS\Cieds\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/561e3191c080ffc5/Documentos/dev/coletivoAprendiz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D31EA6F6-189F-4929-83D0-E7ED03D4D7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{D31EA6F6-189F-4929-83D0-E7ED03D4D7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4A750B-80D9-4045-A11F-1741C67B191D}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AADD3DBC-10A2-4E1E-B84E-2ACBCC221757}"/>
+    <workbookView xWindow="25200" yWindow="705" windowWidth="18000" windowHeight="9360" xr2:uid="{AADD3DBC-10A2-4E1E-B84E-2ACBCC221757}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="48">
   <si>
     <t>Página 1</t>
   </si>
@@ -136,46 +136,6 @@
     <t>Página 2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Turma: AUX 04(4ªM 4H)44ENC   Dia do encontro: Quarta-Feira</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Disciplina: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Educador Responsável: Moises Maia Rangel</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">PAISSANDU ATLETICO CLUBE </t>
   </si>
   <si>
@@ -219,6 +179,47 @@
   </si>
   <si>
     <t>José Prudente de Morais</t>
+  </si>
+  <si>
+    <t>Valentine Cole</t>
+  </si>
+  <si>
+    <t>Anjolie Rice</t>
+  </si>
+  <si>
+    <t>Larissa Booker</t>
+  </si>
+  <si>
+    <t>Mason Nelson</t>
+  </si>
+  <si>
+    <t>Germane Donaldson</t>
+  </si>
+  <si>
+    <t>Odysseus Michael</t>
+  </si>
+  <si>
+    <t>Burke Clark</t>
+  </si>
+  <si>
+    <t>Herman Bruce</t>
+  </si>
+  <si>
+    <t>Lester Potter</t>
+  </si>
+  <si>
+    <t>Kirk Ortega</t>
+  </si>
+  <si>
+    <t>Caldwell Horton</t>
+  </si>
+  <si>
+    <t>Risa Foley</t>
+  </si>
+  <si>
+    <t>Turma: AUX 04(4ªM 4H)44ENC   Dia do encontro: Quarta-Feira 
+ Disciplina: 
+ Educador Responsável: Moises Maia Rangel</t>
   </si>
 </sst>
 </file>
@@ -352,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -361,6 +362,63 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -375,48 +433,6 @@
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -528,6 +544,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -827,11 +847,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C4A81B-6DDE-4A06-A129-9EA8C6FFFC9B}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17:G17"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -861,137 +881,137 @@
   <sheetData>
     <row r="1" spans="1:20" ht="3.4" customHeight="1"/>
     <row r="2" spans="1:20">
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="5"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="16.350000000000001" customHeight="1">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="41.45" customHeight="1">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:20" ht="5.0999999999999996" customHeight="1"/>
     <row r="7" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:20" ht="2.1" customHeight="1"/>
     <row r="9" spans="1:20">
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="J10" s="9">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="J10" s="28">
         <v>45154</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:20" ht="9.9499999999999993" customHeight="1"/>
     <row r="13" spans="1:20" ht="3.95" customHeight="1"/>
     <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="14"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="13" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="17" t="s">
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="17" t="s">
+      <c r="L15" s="14"/>
+      <c r="M15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="17" t="s">
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14"/>
       <c r="S15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1000,246 +1020,636 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="B16" s="19">
+      <c r="B16" s="15">
         <v>52967</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="15" customHeight="1">
+      <c r="B17" s="10">
+        <v>51762</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="15" customHeight="1">
+      <c r="B18" s="10">
+        <v>59259</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="15" customHeight="1">
+      <c r="B19" s="10">
+        <v>38819</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="15" customHeight="1">
+      <c r="B20" s="10">
+        <v>59690</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="17.100000000000001" customHeight="1">
+      <c r="B21" s="10">
+        <v>59691</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="19">
-        <v>51762</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23" t="s">
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="10">
+        <v>59692</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="B18" s="19">
-        <v>59259</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23" t="s">
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="10">
+        <v>59693</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20">
-      <c r="B19" s="19">
-        <v>38819</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="10">
+        <v>59694</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="B20" s="19">
-        <v>59690</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="9"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="10">
+        <v>59695</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" ht="17.100000000000001" customHeight="1">
-      <c r="B21" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="12"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="9"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="10">
+        <v>59696</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="9"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="10">
+        <v>59697</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="9"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="10">
+        <v>59698</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="9"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="10">
+        <v>59699</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" s="9"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="10">
+        <v>59700</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="9"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="10">
+        <v>59701</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="9"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="10">
+        <v>59702</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="9"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B21:T21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:O17"/>
+  <mergeCells count="115">
     <mergeCell ref="B14:T14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:G15"/>
@@ -1253,6 +1663,108 @@
     <mergeCell ref="A7:Q7"/>
     <mergeCell ref="F9:H11"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:R30"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.59055118110236204" bottom="1.30782283464567" header="0.59055118110236204" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1267,9 +1779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3637E5C4-A4FF-4100-926D-0B70C0524C25}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22:T22"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1299,136 +1811,136 @@
   <sheetData>
     <row r="1" spans="1:20" ht="3.4" customHeight="1"/>
     <row r="2" spans="1:20">
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="5"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="16.350000000000001" customHeight="1">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="41.45" customHeight="1">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:20" ht="5.0999999999999996" customHeight="1"/>
     <row r="7" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:20" ht="2.1" customHeight="1"/>
     <row r="9" spans="1:20">
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="J10" s="9">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="J10" s="28">
         <v>45154</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:20" ht="9.9499999999999993" customHeight="1"/>
     <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="B13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="12"/>
+      <c r="B13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="14"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="17" t="s">
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="17" t="s">
+      <c r="L14" s="14"/>
+      <c r="M14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="17" t="s">
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
       <c r="S14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1437,257 +1949,257 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="B15" s="19">
+      <c r="B15" s="15">
         <v>43865</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="B16" s="15">
+        <v>47933</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="23" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="B16" s="19">
-        <v>47933</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="23" t="s">
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="15">
+        <v>45521</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="23" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="19">
-        <v>45521</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="23" t="s">
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="15">
+        <v>47919</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="B18" s="19">
-        <v>47919</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="23" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="15">
+        <v>47767</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="23" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="15">
+        <v>48010</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="15">
+        <v>39103</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20">
-      <c r="B19" s="19">
-        <v>47767</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="B20" s="19">
-        <v>48010</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="B21" s="19">
-        <v>39103</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
       <c r="S21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1696,37 +2208,67 @@
       </c>
     </row>
     <row r="22" spans="2:20" ht="17.100000000000001" customHeight="1">
-      <c r="B22" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="12"/>
+      <c r="B22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B22:T22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="F9:H11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:O18"/>
     <mergeCell ref="P20:R20"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:G19"/>
@@ -1739,43 +2281,13 @@
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="F9:H11"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B22:T22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.59055118110236204" bottom="1.30782283464567" header="0.59055118110236204" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
